--- a/data/evaluation/evaluation_North_Autumn_Grapefruits.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Grapefruits.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2066.864045724674</v>
+        <v>2065.009305561368</v>
       </c>
       <c r="C4" t="n">
-        <v>7876736.642772116</v>
+        <v>7873913.522781413</v>
       </c>
       <c r="D4" t="n">
-        <v>2806.55244789263</v>
+        <v>2806.049451235921</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02283733197205917</v>
+        <v>-0.02247073440125225</v>
       </c>
     </row>
     <row r="5">
